--- a/output/part3/4. vw_panel.xlsx
+++ b/output/part3/4. vw_panel.xlsx
@@ -496,36 +496,32 @@
           <t>CAPM</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.006822489119682112</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.007502351483332947</v>
+        <v>0.007391957240133578</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006692058805176417</v>
+        <v>0.006642902683020542</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007189801190119873</v>
+        <v>0.007121045236691579</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006382223029578278</v>
+        <v>0.006317183960334542</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008512937478033092</v>
+        <v>0.008641565722753144</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02365324520981568</v>
+        <v>0.02342141653200627</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01234215039362579</v>
+        <v>0.01239393449750812</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01707532263264335</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.02648360350881739</v>
-      </c>
+        <v>0.01704944969322991</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -536,36 +532,32 @@
           <t>t-CAPM</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1.611862550401777</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1.950952354716473</v>
+        <v>1.920293207489706</v>
       </c>
       <c r="D3" t="n">
-        <v>2.165544195968703</v>
+        <v>2.149884548893061</v>
       </c>
       <c r="E3" t="n">
-        <v>2.86701444435986</v>
+        <v>2.837271397548727</v>
       </c>
       <c r="F3" t="n">
-        <v>2.230956954836039</v>
+        <v>2.208087679784576</v>
       </c>
       <c r="G3" t="n">
-        <v>1.931579356859294</v>
+        <v>1.963111005301432</v>
       </c>
       <c r="H3" t="n">
-        <v>2.720999797965836</v>
+        <v>2.694219833724086</v>
       </c>
       <c r="I3" t="n">
-        <v>4.998272751838155</v>
+        <v>5.015749913799096</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3027072898665</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.910067253210513</v>
-      </c>
+        <v>5.296221080846779</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -576,36 +568,32 @@
           <t>FF3</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-6.295119167072775e-06</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.002008451217220492</v>
+        <v>0.001912242050976261</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001714982729575963</v>
+        <v>0.001618764688820853</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00430370034683325</v>
+        <v>0.004238055852749339</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003589535032416151</v>
+        <v>0.003524652814303154</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005663661414396537</v>
+        <v>0.005789610226808081</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02166694200263252</v>
+        <v>0.02140729734495759</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01055530092228343</v>
+        <v>0.01061851052745901</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01759625949451434</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.02826988197179309</v>
-      </c>
+        <v>0.01757691864872913</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -616,36 +604,32 @@
           <t>t-FF3</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.002040470402756076</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.6516244310471256</v>
+        <v>0.6199997375773887</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7014631057488382</v>
+        <v>0.6643014074269569</v>
       </c>
       <c r="E5" t="n">
-        <v>1.86282434648982</v>
+        <v>1.831976040716276</v>
       </c>
       <c r="F5" t="n">
-        <v>1.297501750319921</v>
+        <v>1.274131381374402</v>
       </c>
       <c r="G5" t="n">
-        <v>1.296216490160181</v>
+        <v>1.326577543211484</v>
       </c>
       <c r="H5" t="n">
-        <v>2.467033500980099</v>
+        <v>2.437620871547078</v>
       </c>
       <c r="I5" t="n">
-        <v>4.479197193167378</v>
+        <v>4.501124608490255</v>
       </c>
       <c r="J5" t="n">
-        <v>5.475501714743661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.278983128012078</v>
-      </c>
+        <v>5.471996697484086</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -656,36 +640,32 @@
           <t>FF5</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.003779535672128888</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.004577502958989878</v>
+        <v>0.0044983311470378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003476008930427747</v>
+        <v>0.0033623234505594</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005934305316886751</v>
+        <v>0.005878154509166965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004935846674570571</v>
+        <v>0.004880037242383554</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00646287342235981</v>
+        <v>0.006572669778147367</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02286344864904547</v>
+        <v>0.02262454644865517</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01103411157479905</v>
+        <v>0.01109577274020206</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01841262987962534</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.02777084149606737</v>
-      </c>
+        <v>0.01839725603602282</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>0</v>
       </c>
@@ -696,36 +676,32 @@
           <t>t-FF5</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1.339463868606626</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1.547396983289908</v>
+        <v>1.520600047559203</v>
       </c>
       <c r="D7" t="n">
-        <v>1.458332499859115</v>
+        <v>1.414472480613304</v>
       </c>
       <c r="E7" t="n">
-        <v>2.604610028333375</v>
+        <v>2.57777802787585</v>
       </c>
       <c r="F7" t="n">
-        <v>1.777165730377933</v>
+        <v>1.757435474269319</v>
       </c>
       <c r="G7" t="n">
-        <v>1.481432353035362</v>
+        <v>1.508264307046911</v>
       </c>
       <c r="H7" t="n">
-        <v>2.561966128856213</v>
+        <v>2.535442260544683</v>
       </c>
       <c r="I7" t="n">
-        <v>4.604823522708997</v>
+        <v>4.625504251222024</v>
       </c>
       <c r="J7" t="n">
-        <v>5.640329905127905</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.053528573074015</v>
-      </c>
+        <v>5.638463495808752</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>0</v>
       </c>

--- a/output/part3/4. vw_panel.xlsx
+++ b/output/part3/4. vw_panel.xlsx
@@ -496,32 +496,36 @@
           <t>CAPM</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0.006640360408095593</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.007391957240133578</v>
+        <v>0.007598577117445663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006642902683020542</v>
+        <v>0.006506929880522123</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007121045236691579</v>
+        <v>0.007117596399899145</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006317183960334542</v>
+        <v>0.006088441559104325</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008641565722753144</v>
+        <v>0.008969319806563311</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02342141653200627</v>
+        <v>0.02332548159551919</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01239393449750812</v>
+        <v>0.01226773351631537</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01704944969322991</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>0.01686739834450001</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.02650409654958399</v>
+      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -532,32 +536,36 @@
           <t>t-CAPM</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1.571459216897807</v>
+      </c>
       <c r="C3" t="n">
-        <v>1.920293207489706</v>
+        <v>1.961273014222722</v>
       </c>
       <c r="D3" t="n">
-        <v>2.149884548893061</v>
+        <v>2.118817737531814</v>
       </c>
       <c r="E3" t="n">
-        <v>2.837271397548727</v>
+        <v>2.818450289187602</v>
       </c>
       <c r="F3" t="n">
-        <v>2.208087679784576</v>
+        <v>2.089895316548808</v>
       </c>
       <c r="G3" t="n">
-        <v>1.963111005301432</v>
+        <v>2.011705423978616</v>
       </c>
       <c r="H3" t="n">
-        <v>2.694219833724086</v>
+        <v>2.680160538179902</v>
       </c>
       <c r="I3" t="n">
-        <v>5.015749913799096</v>
+        <v>4.982019429373821</v>
       </c>
       <c r="J3" t="n">
-        <v>5.296221080846779</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>5.316041940849726</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.917151231499093</v>
+      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -568,32 +576,36 @@
           <t>FF3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-0.0002233612910341586</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.001912242050976261</v>
+        <v>0.002080660163231908</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001618764688820853</v>
+        <v>0.001500817697149554</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004238055852749339</v>
+        <v>0.004199901235061115</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003524652814303154</v>
+        <v>0.003134791890483918</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005789610226808081</v>
+        <v>0.006170422059668943</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02140729734495759</v>
+        <v>0.02128350357668886</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01061851052745901</v>
+        <v>0.01050093752438289</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01757691864872913</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>0.01737874075670308</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.02827210952809144</v>
+      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -604,32 +616,36 @@
           <t>t-FF3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>-0.07242179235077167</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.6199997375773887</v>
+        <v>0.6718217774572575</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6643014074269569</v>
+        <v>0.6203958879484436</v>
       </c>
       <c r="E5" t="n">
-        <v>1.831976040716276</v>
+        <v>1.805799643972899</v>
       </c>
       <c r="F5" t="n">
-        <v>1.274131381374402</v>
+        <v>1.117909701191577</v>
       </c>
       <c r="G5" t="n">
-        <v>1.326577543211484</v>
+        <v>1.393031019412186</v>
       </c>
       <c r="H5" t="n">
-        <v>2.437620871547078</v>
+        <v>2.421406931597126</v>
       </c>
       <c r="I5" t="n">
-        <v>4.501124608490255</v>
+        <v>4.468052327407491</v>
       </c>
       <c r="J5" t="n">
-        <v>5.471996697484086</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>5.487471698403671</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.28087278895249</v>
+      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
@@ -640,32 +656,36 @@
           <t>FF5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.003563341918077797</v>
+      </c>
       <c r="C6" t="n">
-        <v>0.0044983311470378</v>
+        <v>0.004707760478036659</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0033623234505594</v>
+        <v>0.003209788482108138</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005878154509166965</v>
+        <v>0.005912978653260228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004880037242383554</v>
+        <v>0.004366622619055409</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006572669778147367</v>
+        <v>0.007005309510435448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02262454644865517</v>
+        <v>0.02245600717830168</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01109577274020206</v>
+        <v>0.01100079801176136</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01839725603602282</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>0.01816590172410887</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.02778205364395675</v>
+      </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
@@ -676,32 +696,36 @@
           <t>t-FF5</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>1.261807447695066</v>
+      </c>
       <c r="C7" t="n">
-        <v>1.520600047559203</v>
+        <v>1.587751378732075</v>
       </c>
       <c r="D7" t="n">
-        <v>1.414472480613304</v>
+        <v>1.358541201300384</v>
       </c>
       <c r="E7" t="n">
-        <v>2.57777802787585</v>
+        <v>2.585460349770685</v>
       </c>
       <c r="F7" t="n">
-        <v>1.757435474269319</v>
+        <v>1.547397636850583</v>
       </c>
       <c r="G7" t="n">
-        <v>1.508264307046911</v>
+        <v>1.581833215914794</v>
       </c>
       <c r="H7" t="n">
-        <v>2.535442260544683</v>
+        <v>2.514618785805318</v>
       </c>
       <c r="I7" t="n">
-        <v>4.625504251222024</v>
+        <v>4.604143759567514</v>
       </c>
       <c r="J7" t="n">
-        <v>5.638463495808752</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>5.645791212278596</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.057108460540092</v>
+      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>

--- a/output/part3/4. vw_panel.xlsx
+++ b/output/part3/4. vw_panel.xlsx
@@ -527,7 +527,7 @@
         <v>0.02650409654958399</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.02421871172587895</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         <v>5.917151231499093</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.714003668580404</v>
       </c>
     </row>
     <row r="4">

--- a/output/part3/4. vw_panel.xlsx
+++ b/output/part3/4. vw_panel.xlsx
@@ -527,7 +527,7 @@
         <v>0.02650409654958399</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02421871172587895</v>
+        <v>0.01986373614148839</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         <v>5.917151231499093</v>
       </c>
       <c r="L3" t="n">
-        <v>4.714003668580404</v>
+        <v>3.305976832604892</v>
       </c>
     </row>
     <row r="4">
@@ -607,7 +607,7 @@
         <v>0.02827210952809144</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.0284954708191256</v>
       </c>
     </row>
     <row r="5">
@@ -647,7 +647,7 @@
         <v>6.28087278895249</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>5.424894395674299</v>
       </c>
     </row>
     <row r="6">
@@ -687,7 +687,7 @@
         <v>0.02778205364395675</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.02421871172587895</v>
       </c>
     </row>
     <row r="7">
@@ -727,7 +727,7 @@
         <v>6.057108460540092</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>4.714003668580404</v>
       </c>
     </row>
   </sheetData>
